--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Acvr1b</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H2">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I2">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J2">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.56593802862181</v>
+        <v>1.879801666666667</v>
       </c>
       <c r="N2">
-        <v>1.56593802862181</v>
+        <v>5.639405</v>
       </c>
       <c r="O2">
-        <v>0.06586314881856592</v>
+        <v>0.07468080881969584</v>
       </c>
       <c r="P2">
-        <v>0.06586314881856592</v>
+        <v>0.07468080881969585</v>
       </c>
       <c r="Q2">
-        <v>1.004056792591338</v>
+        <v>1.487159346742778</v>
       </c>
       <c r="R2">
-        <v>1.004056792591338</v>
+        <v>13.384434120685</v>
       </c>
       <c r="S2">
-        <v>0.006146669443076219</v>
+        <v>0.007349835761680893</v>
       </c>
       <c r="T2">
-        <v>0.006146669443076219</v>
+        <v>0.007349835761680894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H3">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I3">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J3">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.7218735005327</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N3">
-        <v>5.7218735005327</v>
+        <v>17.409842</v>
       </c>
       <c r="O3">
-        <v>0.2406612515938902</v>
+        <v>0.2305528831469119</v>
       </c>
       <c r="P3">
-        <v>0.2406612515938902</v>
+        <v>0.230552883146912</v>
       </c>
       <c r="Q3">
-        <v>3.668782448315985</v>
+        <v>4.591124286270444</v>
       </c>
       <c r="R3">
-        <v>3.668782448315985</v>
+        <v>41.320118576434</v>
       </c>
       <c r="S3">
-        <v>0.02245967871016301</v>
+        <v>0.02269024468659619</v>
       </c>
       <c r="T3">
-        <v>0.02245967871016301</v>
+        <v>0.02269024468659619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H4">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I4">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J4">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.84741506448671</v>
+        <v>4.498281</v>
       </c>
       <c r="N4">
-        <v>3.84741506448671</v>
+        <v>13.494843</v>
       </c>
       <c r="O4">
-        <v>0.1618217747621224</v>
+        <v>0.1787078229236614</v>
       </c>
       <c r="P4">
-        <v>0.1618217747621224</v>
+        <v>0.1787078229236614</v>
       </c>
       <c r="Q4">
-        <v>2.466906837185623</v>
+        <v>3.558705554979</v>
       </c>
       <c r="R4">
-        <v>2.466906837185623</v>
+        <v>32.028349994811</v>
       </c>
       <c r="S4">
-        <v>0.01510199521275117</v>
+        <v>0.01758782702779266</v>
       </c>
       <c r="T4">
-        <v>0.01510199521275117</v>
+        <v>0.01758782702779266</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H5">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I5">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J5">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.43378021540292</v>
+        <v>4.514094000000001</v>
       </c>
       <c r="N5">
-        <v>4.43378021540292</v>
+        <v>13.542282</v>
       </c>
       <c r="O5">
-        <v>0.1864842163727938</v>
+        <v>0.1793360421931761</v>
       </c>
       <c r="P5">
-        <v>0.1864842163727938</v>
+        <v>0.1793360421931762</v>
       </c>
       <c r="Q5">
-        <v>2.842875682666962</v>
+        <v>3.571215625146001</v>
       </c>
       <c r="R5">
-        <v>2.842875682666962</v>
+        <v>32.14094062631401</v>
       </c>
       <c r="S5">
-        <v>0.01740361423581909</v>
+        <v>0.01764965426997484</v>
       </c>
       <c r="T5">
-        <v>0.01740361423581909</v>
+        <v>0.01764965426997485</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H6">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I6">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J6">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.36802434158151</v>
+        <v>6.434522</v>
       </c>
       <c r="N6">
-        <v>6.36802434158151</v>
+        <v>19.303566</v>
       </c>
       <c r="O6">
-        <v>0.2678382715176572</v>
+        <v>0.2556308550253761</v>
       </c>
       <c r="P6">
-        <v>0.2678382715176572</v>
+        <v>0.2556308550253761</v>
       </c>
       <c r="Q6">
-        <v>4.083085012744189</v>
+        <v>5.090515506931334</v>
       </c>
       <c r="R6">
-        <v>4.083085012744189</v>
+        <v>45.814639562382</v>
       </c>
       <c r="S6">
-        <v>0.02499597041372948</v>
+        <v>0.02515833491561032</v>
       </c>
       <c r="T6">
-        <v>0.02499597041372948</v>
+        <v>0.02515833491561032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H7">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I7">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J7">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.83860145594043</v>
+        <v>2.041168333333333</v>
       </c>
       <c r="N7">
-        <v>1.83860145594043</v>
+        <v>6.123505</v>
       </c>
       <c r="O7">
-        <v>0.07733133693497039</v>
+        <v>0.08109158789117851</v>
       </c>
       <c r="P7">
-        <v>0.07733133693497039</v>
+        <v>0.08109158789117853</v>
       </c>
       <c r="Q7">
-        <v>1.178884634617398</v>
+        <v>1.614820658487222</v>
       </c>
       <c r="R7">
-        <v>1.178884634617398</v>
+        <v>14.533385926385</v>
       </c>
       <c r="S7">
-        <v>0.007216936545803666</v>
+        <v>0.00798076322516857</v>
       </c>
       <c r="T7">
-        <v>0.007216936545803666</v>
+        <v>0.00798076322516857</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H8">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I8">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J8">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.56593802862181</v>
+        <v>1.879801666666667</v>
       </c>
       <c r="N8">
-        <v>1.56593802862181</v>
+        <v>5.639405</v>
       </c>
       <c r="O8">
-        <v>0.06586314881856592</v>
+        <v>0.07468080881969584</v>
       </c>
       <c r="P8">
-        <v>0.06586314881856592</v>
+        <v>0.07468080881969585</v>
       </c>
       <c r="Q8">
-        <v>4.416229151118902</v>
+        <v>5.319885711708334</v>
       </c>
       <c r="R8">
-        <v>4.416229151118902</v>
+        <v>47.878971405375</v>
       </c>
       <c r="S8">
-        <v>0.02703542367035542</v>
+        <v>0.02629192785400419</v>
       </c>
       <c r="T8">
-        <v>0.02703542367035542</v>
+        <v>0.0262919278540042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H9">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I9">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J9">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.7218735005327</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N9">
-        <v>5.7218735005327</v>
+        <v>17.409842</v>
       </c>
       <c r="O9">
-        <v>0.2406612515938902</v>
+        <v>0.2305528831469119</v>
       </c>
       <c r="P9">
-        <v>0.2406612515938902</v>
+        <v>0.230552883146912</v>
       </c>
       <c r="Q9">
-        <v>16.13672066850993</v>
+        <v>16.42342936868333</v>
       </c>
       <c r="R9">
-        <v>16.13672066850993</v>
+        <v>147.81086431815</v>
       </c>
       <c r="S9">
-        <v>0.09878633218405679</v>
+        <v>0.08116783770869658</v>
       </c>
       <c r="T9">
-        <v>0.09878633218405679</v>
+        <v>0.08116783770869661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H10">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I10">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J10">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.84741506448671</v>
+        <v>4.498281</v>
       </c>
       <c r="N10">
-        <v>3.84741506448671</v>
+        <v>13.494843</v>
       </c>
       <c r="O10">
-        <v>0.1618217747621224</v>
+        <v>0.1787078229236614</v>
       </c>
       <c r="P10">
-        <v>0.1618217747621224</v>
+        <v>0.1787078229236614</v>
       </c>
       <c r="Q10">
-        <v>10.85040803255423</v>
+        <v>12.730247687025</v>
       </c>
       <c r="R10">
-        <v>10.85040803255423</v>
+        <v>114.572229183225</v>
       </c>
       <c r="S10">
-        <v>0.06642440147880657</v>
+        <v>0.06291540305353374</v>
       </c>
       <c r="T10">
-        <v>0.06642440147880657</v>
+        <v>0.06291540305353377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H11">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I11">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J11">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.43378021540292</v>
+        <v>4.514094000000001</v>
       </c>
       <c r="N11">
-        <v>4.43378021540292</v>
+        <v>13.542282</v>
       </c>
       <c r="O11">
-        <v>0.1864842163727938</v>
+        <v>0.1793360421931761</v>
       </c>
       <c r="P11">
-        <v>0.1864842163727938</v>
+        <v>0.1793360421931762</v>
       </c>
       <c r="Q11">
-        <v>12.50406406832689</v>
+        <v>12.77499887235</v>
       </c>
       <c r="R11">
-        <v>12.50406406832689</v>
+        <v>114.97498985115</v>
       </c>
       <c r="S11">
-        <v>0.07654780993482549</v>
+        <v>0.06313657226650324</v>
       </c>
       <c r="T11">
-        <v>0.07654780993482549</v>
+        <v>0.06313657226650325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H12">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I12">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J12">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.36802434158151</v>
+        <v>6.434522</v>
       </c>
       <c r="N12">
-        <v>6.36802434158151</v>
+        <v>19.303566</v>
       </c>
       <c r="O12">
-        <v>0.2678382715176572</v>
+        <v>0.2556308550253761</v>
       </c>
       <c r="P12">
-        <v>0.2678382715176572</v>
+        <v>0.2556308550253761</v>
       </c>
       <c r="Q12">
-        <v>17.95898318982514</v>
+        <v>18.20985812305</v>
       </c>
       <c r="R12">
-        <v>17.95898318982514</v>
+        <v>163.88872310745</v>
       </c>
       <c r="S12">
-        <v>0.1099419216284779</v>
+        <v>0.0899967221004713</v>
       </c>
       <c r="T12">
-        <v>0.1099419216284779</v>
+        <v>0.08999672210047131</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H13">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I13">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J13">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.83860145594043</v>
+        <v>2.041168333333333</v>
       </c>
       <c r="N13">
-        <v>1.83860145594043</v>
+        <v>6.123505</v>
       </c>
       <c r="O13">
-        <v>0.07733133693497039</v>
+        <v>0.08109158789117851</v>
       </c>
       <c r="P13">
-        <v>0.07733133693497039</v>
+        <v>0.08109158789117853</v>
       </c>
       <c r="Q13">
-        <v>5.185189451053793</v>
+        <v>5.776557412541667</v>
       </c>
       <c r="R13">
-        <v>5.185189451053793</v>
+        <v>51.98901671287501</v>
       </c>
       <c r="S13">
-        <v>0.03174287131019453</v>
+        <v>0.02854888976295087</v>
       </c>
       <c r="T13">
-        <v>0.03174287131019453</v>
+        <v>0.02854888976295088</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.40910145923982</v>
+        <v>0.3950273333333333</v>
       </c>
       <c r="H14">
-        <v>3.40910145923982</v>
+        <v>1.185082</v>
       </c>
       <c r="I14">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="J14">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.56593802862181</v>
+        <v>1.879801666666667</v>
       </c>
       <c r="N14">
-        <v>1.56593802862181</v>
+        <v>5.639405</v>
       </c>
       <c r="O14">
-        <v>0.06586314881856592</v>
+        <v>0.07468080881969584</v>
       </c>
       <c r="P14">
-        <v>0.06586314881856592</v>
+        <v>0.07468080881969585</v>
       </c>
       <c r="Q14">
-        <v>5.33844161845374</v>
+        <v>0.7425730395788889</v>
       </c>
       <c r="R14">
-        <v>5.33844161845374</v>
+        <v>6.68315735621</v>
       </c>
       <c r="S14">
-        <v>0.03268105570513428</v>
+        <v>0.003669942897451318</v>
       </c>
       <c r="T14">
-        <v>0.03268105570513428</v>
+        <v>0.003669942897451318</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.40910145923982</v>
+        <v>0.3950273333333333</v>
       </c>
       <c r="H15">
-        <v>3.40910145923982</v>
+        <v>1.185082</v>
       </c>
       <c r="I15">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="J15">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.7218735005327</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N15">
-        <v>5.7218735005327</v>
+        <v>17.409842</v>
       </c>
       <c r="O15">
-        <v>0.2406612515938902</v>
+        <v>0.2305528831469119</v>
       </c>
       <c r="P15">
-        <v>0.2406612515938902</v>
+        <v>0.230552883146912</v>
       </c>
       <c r="Q15">
-        <v>19.50644730025169</v>
+        <v>2.292454486338222</v>
       </c>
       <c r="R15">
-        <v>19.50644730025169</v>
+        <v>20.632090377044</v>
       </c>
       <c r="S15">
-        <v>0.1194152406996705</v>
+        <v>0.01132976368848303</v>
       </c>
       <c r="T15">
-        <v>0.1194152406996705</v>
+        <v>0.01132976368848303</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.40910145923982</v>
+        <v>0.3950273333333333</v>
       </c>
       <c r="H16">
-        <v>3.40910145923982</v>
+        <v>1.185082</v>
       </c>
       <c r="I16">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="J16">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.84741506448671</v>
+        <v>4.498281</v>
       </c>
       <c r="N16">
-        <v>3.84741506448671</v>
+        <v>13.494843</v>
       </c>
       <c r="O16">
-        <v>0.1618217747621224</v>
+        <v>0.1787078229236614</v>
       </c>
       <c r="P16">
-        <v>0.1618217747621224</v>
+        <v>0.1787078229236614</v>
       </c>
       <c r="Q16">
-        <v>13.11622831064291</v>
+        <v>1.776943948014</v>
       </c>
       <c r="R16">
-        <v>13.11622831064291</v>
+        <v>15.992495532126</v>
       </c>
       <c r="S16">
-        <v>0.08029537807056469</v>
+        <v>0.008782008601983832</v>
       </c>
       <c r="T16">
-        <v>0.08029537807056469</v>
+        <v>0.008782008601983833</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>3.40910145923982</v>
+        <v>0.3950273333333333</v>
       </c>
       <c r="H17">
-        <v>3.40910145923982</v>
+        <v>1.185082</v>
       </c>
       <c r="I17">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="J17">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.43378021540292</v>
+        <v>4.514094000000001</v>
       </c>
       <c r="N17">
-        <v>4.43378021540292</v>
+        <v>13.542282</v>
       </c>
       <c r="O17">
-        <v>0.1864842163727938</v>
+        <v>0.1793360421931761</v>
       </c>
       <c r="P17">
-        <v>0.1864842163727938</v>
+        <v>0.1793360421931762</v>
       </c>
       <c r="Q17">
-        <v>15.11520660227874</v>
+        <v>1.783190515236</v>
       </c>
       <c r="R17">
-        <v>15.11520660227874</v>
+        <v>16.048714637124</v>
       </c>
       <c r="S17">
-        <v>0.0925327922021492</v>
+        <v>0.008812880373227821</v>
       </c>
       <c r="T17">
-        <v>0.0925327922021492</v>
+        <v>0.008812880373227822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>3.40910145923982</v>
+        <v>0.3950273333333333</v>
       </c>
       <c r="H18">
-        <v>3.40910145923982</v>
+        <v>1.185082</v>
       </c>
       <c r="I18">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="J18">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.36802434158151</v>
+        <v>6.434522</v>
       </c>
       <c r="N18">
-        <v>6.36802434158151</v>
+        <v>19.303566</v>
       </c>
       <c r="O18">
-        <v>0.2678382715176572</v>
+        <v>0.2556308550253761</v>
       </c>
       <c r="P18">
-        <v>0.2678382715176572</v>
+        <v>0.2556308550253761</v>
       </c>
       <c r="Q18">
-        <v>21.70924107536022</v>
+        <v>2.541812066934667</v>
       </c>
       <c r="R18">
-        <v>21.70924107536022</v>
+        <v>22.876308602412</v>
       </c>
       <c r="S18">
-        <v>0.1329003794754499</v>
+        <v>0.01256213819315739</v>
       </c>
       <c r="T18">
-        <v>0.1329003794754499</v>
+        <v>0.01256213819315739</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3950273333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.185082</v>
+      </c>
+      <c r="I19">
+        <v>0.0491417133190372</v>
+      </c>
+      <c r="J19">
+        <v>0.0491417133190372</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.041168333333333</v>
+      </c>
+      <c r="N19">
+        <v>6.123505</v>
+      </c>
+      <c r="O19">
+        <v>0.08109158789117851</v>
+      </c>
+      <c r="P19">
+        <v>0.08109158789117853</v>
+      </c>
+      <c r="Q19">
+        <v>0.8063172836011111</v>
+      </c>
+      <c r="R19">
+        <v>7.256855552409999</v>
+      </c>
+      <c r="S19">
+        <v>0.003984979564733803</v>
+      </c>
+      <c r="T19">
+        <v>0.003984979564733804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.74674</v>
+      </c>
+      <c r="I20">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J20">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.879801666666667</v>
+      </c>
+      <c r="N20">
+        <v>5.639405</v>
+      </c>
+      <c r="O20">
+        <v>0.07468080881969584</v>
+      </c>
+      <c r="P20">
+        <v>0.07468080881969585</v>
+      </c>
+      <c r="Q20">
+        <v>0.4679076988555555</v>
+      </c>
+      <c r="R20">
+        <v>4.2111692897</v>
+      </c>
+      <c r="S20">
+        <v>0.002312492434483687</v>
+      </c>
+      <c r="T20">
+        <v>0.002312492434483688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.74674</v>
+      </c>
+      <c r="I21">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J21">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.803280666666666</v>
+      </c>
+      <c r="N21">
+        <v>17.409842</v>
+      </c>
+      <c r="O21">
+        <v>0.2305528831469119</v>
+      </c>
+      <c r="P21">
+        <v>0.230552883146912</v>
+      </c>
+      <c r="Q21">
+        <v>1.444513935008889</v>
+      </c>
+      <c r="R21">
+        <v>13.00062541508</v>
+      </c>
+      <c r="S21">
+        <v>0.007139073698476405</v>
+      </c>
+      <c r="T21">
+        <v>0.007139073698476408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.74674</v>
+      </c>
+      <c r="I22">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J22">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.498281</v>
+      </c>
+      <c r="N22">
+        <v>13.494843</v>
+      </c>
+      <c r="O22">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="P22">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="Q22">
+        <v>1.11968211798</v>
+      </c>
+      <c r="R22">
+        <v>10.07713906182</v>
+      </c>
+      <c r="S22">
+        <v>0.00553369058296844</v>
+      </c>
+      <c r="T22">
+        <v>0.005533690582968442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.74674</v>
+      </c>
+      <c r="I23">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J23">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.514094000000001</v>
+      </c>
+      <c r="N23">
+        <v>13.542282</v>
+      </c>
+      <c r="O23">
+        <v>0.1793360421931761</v>
+      </c>
+      <c r="P23">
+        <v>0.1793360421931762</v>
+      </c>
+      <c r="Q23">
+        <v>1.12361818452</v>
+      </c>
+      <c r="R23">
+        <v>10.11256366068</v>
+      </c>
+      <c r="S23">
+        <v>0.005553143402654113</v>
+      </c>
+      <c r="T23">
+        <v>0.005553143402654115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.74674</v>
+      </c>
+      <c r="I24">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J24">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.434522</v>
+      </c>
+      <c r="N24">
+        <v>19.303566</v>
+      </c>
+      <c r="O24">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="P24">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="Q24">
+        <v>1.601638319426667</v>
+      </c>
+      <c r="R24">
+        <v>14.41474487484</v>
+      </c>
+      <c r="S24">
+        <v>0.007915613497089946</v>
+      </c>
+      <c r="T24">
+        <v>0.007915613497089947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.74674</v>
+      </c>
+      <c r="I25">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J25">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.041168333333333</v>
+      </c>
+      <c r="N25">
+        <v>6.123505</v>
+      </c>
+      <c r="O25">
+        <v>0.08109158789117851</v>
+      </c>
+      <c r="P25">
+        <v>0.08109158789117853</v>
+      </c>
+      <c r="Q25">
+        <v>0.5080740137444444</v>
+      </c>
+      <c r="R25">
+        <v>4.572666123699999</v>
+      </c>
+      <c r="S25">
+        <v>0.002511002310531524</v>
+      </c>
+      <c r="T25">
+        <v>0.002511002310531525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H26">
+        <v>11.320328</v>
+      </c>
+      <c r="I26">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J26">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.879801666666667</v>
+      </c>
+      <c r="N26">
+        <v>5.639405</v>
+      </c>
+      <c r="O26">
+        <v>0.07468080881969584</v>
+      </c>
+      <c r="P26">
+        <v>0.07468080881969585</v>
+      </c>
+      <c r="Q26">
+        <v>7.093323813871111</v>
+      </c>
+      <c r="R26">
+        <v>63.83991432484</v>
+      </c>
+      <c r="S26">
+        <v>0.03505660987207575</v>
+      </c>
+      <c r="T26">
+        <v>0.03505660987207576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H27">
+        <v>11.320328</v>
+      </c>
+      <c r="I27">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J27">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.803280666666666</v>
+      </c>
+      <c r="N27">
+        <v>17.409842</v>
+      </c>
+      <c r="O27">
+        <v>0.2305528831469119</v>
+      </c>
+      <c r="P27">
+        <v>0.230552883146912</v>
+      </c>
+      <c r="Q27">
+        <v>21.89834687424177</v>
+      </c>
+      <c r="R27">
+        <v>197.085121868176</v>
+      </c>
+      <c r="S27">
+        <v>0.1082259633646597</v>
+      </c>
+      <c r="T27">
+        <v>0.1082259633646598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3.40910145923982</v>
-      </c>
-      <c r="H19">
-        <v>3.40910145923982</v>
-      </c>
-      <c r="I19">
-        <v>0.4961963752319407</v>
-      </c>
-      <c r="J19">
-        <v>0.4961963752319407</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.83860145594043</v>
-      </c>
-      <c r="N19">
-        <v>1.83860145594043</v>
-      </c>
-      <c r="O19">
-        <v>0.07733133693497039</v>
-      </c>
-      <c r="P19">
-        <v>0.07733133693497039</v>
-      </c>
-      <c r="Q19">
-        <v>6.267978906406978</v>
-      </c>
-      <c r="R19">
-        <v>6.267978906406978</v>
-      </c>
-      <c r="S19">
-        <v>0.03837152907897221</v>
-      </c>
-      <c r="T19">
-        <v>0.03837152907897221</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H28">
+        <v>11.320328</v>
+      </c>
+      <c r="I28">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J28">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.498281</v>
+      </c>
+      <c r="N28">
+        <v>13.494843</v>
+      </c>
+      <c r="O28">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="P28">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="Q28">
+        <v>16.974005452056</v>
+      </c>
+      <c r="R28">
+        <v>152.766049068504</v>
+      </c>
+      <c r="S28">
+        <v>0.0838888936573827</v>
+      </c>
+      <c r="T28">
+        <v>0.08388889365738272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H29">
+        <v>11.320328</v>
+      </c>
+      <c r="I29">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J29">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.514094000000001</v>
+      </c>
+      <c r="N29">
+        <v>13.542282</v>
+      </c>
+      <c r="O29">
+        <v>0.1793360421931761</v>
+      </c>
+      <c r="P29">
+        <v>0.1793360421931762</v>
+      </c>
+      <c r="Q29">
+        <v>17.033674900944</v>
+      </c>
+      <c r="R29">
+        <v>153.303074108496</v>
+      </c>
+      <c r="S29">
+        <v>0.08418379188081612</v>
+      </c>
+      <c r="T29">
+        <v>0.08418379188081615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H30">
+        <v>11.320328</v>
+      </c>
+      <c r="I30">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J30">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.434522</v>
+      </c>
+      <c r="N30">
+        <v>19.303566</v>
+      </c>
+      <c r="O30">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="P30">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="Q30">
+        <v>24.28029985440533</v>
+      </c>
+      <c r="R30">
+        <v>218.522698689648</v>
+      </c>
+      <c r="S30">
+        <v>0.1199980463190471</v>
+      </c>
+      <c r="T30">
+        <v>0.1199980463190471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H31">
+        <v>11.320328</v>
+      </c>
+      <c r="I31">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J31">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.041168333333333</v>
+      </c>
+      <c r="N31">
+        <v>6.123505</v>
+      </c>
+      <c r="O31">
+        <v>0.08109158789117851</v>
+      </c>
+      <c r="P31">
+        <v>0.08109158789117853</v>
+      </c>
+      <c r="Q31">
+        <v>7.702231678848888</v>
+      </c>
+      <c r="R31">
+        <v>69.32008510963999</v>
+      </c>
+      <c r="S31">
+        <v>0.03806595302779375</v>
+      </c>
+      <c r="T31">
+        <v>0.03806595302779376</v>
       </c>
     </row>
   </sheetData>
